--- a/Audit-SEO-LaChouette-HZ.xlsx
+++ b/Audit-SEO-LaChouette-HZ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenClassroom\P4_Zoubeiri_Housna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8388586-DE0B-40EC-8C7C-817D39F85F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A33BC-B0C4-44E6-8CF2-A755C17C2D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Audit" sheetId="1" r:id="rId1"/>
-    <sheet name="Site" sheetId="2" r:id="rId2"/>
-    <sheet name="Page" sheetId="3" r:id="rId3"/>
+    <sheet name="Analyse" sheetId="1" r:id="rId1"/>
+    <sheet name="mots-clés" sheetId="2" r:id="rId2"/>
+    <sheet name="Choix mot-clé" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
   <si>
     <t>Catégorie</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Attribut ALT mal renseigné et surchargé</t>
   </si>
   <si>
-    <t>Contenu</t>
-  </si>
-  <si>
     <t>A enrichir entre 250 à 400 mots</t>
   </si>
   <si>
@@ -341,108 +338,12 @@
     <t>Propriété "min-device-width" déconseillée</t>
   </si>
   <si>
-    <t>Améliorer présentation de la page?? En vue d'intégrer d'autres contenus</t>
-  </si>
-  <si>
     <t>Ajouter la balise pour faciliter l'indexation ou crawling du site</t>
   </si>
   <si>
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Vérifications</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Corrections à effectuer</t>
-  </si>
-  <si>
-    <t>Remarques</t>
-  </si>
-  <si>
-    <t>Google Analytics installé</t>
-  </si>
-  <si>
-    <t>Search Console installée</t>
-  </si>
-  <si>
-    <t>Si Wordpress : 
-Plugin Yoast installé</t>
-  </si>
-  <si>
-    <t>Site placé sur son nom de marque</t>
-  </si>
-  <si>
-    <t>Version principale paramétrée
-(www vs sans www)</t>
-  </si>
-  <si>
-    <t>Absence de contenu dupliqué</t>
-  </si>
-  <si>
-    <t>Vitesse du site correcte</t>
-  </si>
-  <si>
-    <t>Site responsive</t>
-  </si>
-  <si>
-    <t>Fichier robots.txt bien paramétré
- (n'empêche pas le site d'être indexé)</t>
-  </si>
-  <si>
-    <t>Pas de problèmes d'indexation 
-majeurs</t>
-  </si>
-  <si>
-    <t>Pas ou peu d'erreurs dans la 
-Search Console</t>
-  </si>
-  <si>
-    <t>Présence d'un sitemap
-+
-Sitemap dans Search Console</t>
-  </si>
-  <si>
-    <t>Mot clé dans l'URL</t>
-  </si>
-  <si>
-    <t>Balise Title optimisée</t>
-  </si>
-  <si>
-    <t>Balise Description optimisée</t>
-  </si>
-  <si>
-    <t>Balise robots en index, follow</t>
-  </si>
-  <si>
-    <t>Présence d'un seul h1 dans la page contenant le mot clé</t>
-  </si>
-  <si>
-    <t>Architecture de contenu correct 
-( h2, h3, paragraphes)</t>
-  </si>
-  <si>
-    <t>h2 optimisés pour le mot clé</t>
-  </si>
-  <si>
-    <t>Présence du mot clé dans les paragraphes</t>
-  </si>
-  <si>
-    <t>Présence d'au moins 1 image 
-avec balise alt</t>
-  </si>
-  <si>
-    <t>Présence de liens internes</t>
-  </si>
-  <si>
-    <t>Présence de liens externes si cohérents</t>
-  </si>
-  <si>
-    <t>Texte suffisament long</t>
-  </si>
-  <si>
     <t>SEO Site</t>
   </si>
   <si>
@@ -452,12 +353,6 @@
     <t>RAS</t>
   </si>
   <si>
-    <t xml:space="preserve">et emplacement prévu en </t>
-  </si>
-  <si>
-    <t>commentaire non adéquat</t>
-  </si>
-  <si>
     <t>Intégrer un code suivi GA de l'agence</t>
   </si>
   <si>
@@ -474,13 +369,154 @@
   </si>
   <si>
     <t xml:space="preserve">Pas de mot clé </t>
+  </si>
+  <si>
+    <t>Balise meta "keywords"</t>
+  </si>
+  <si>
+    <t>A supprimer car non utilisé au référencement</t>
+  </si>
+  <si>
+    <t>A supprimer et réexploiter les mots-clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prévus dans les balise meta Title et description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définir une architecture cohérente </t>
+  </si>
+  <si>
+    <t>et type de contenu pour alimenter le site</t>
+  </si>
+  <si>
+    <t>Architectue du site non cohérente</t>
+  </si>
+  <si>
+    <t>Améliorer présentation de la page</t>
+  </si>
+  <si>
+    <t>Machine à contenu</t>
+  </si>
+  <si>
+    <t>Améliorer la machine à contenu:</t>
+  </si>
+  <si>
+    <t>en vue d'intégrer d'autres contenus</t>
+  </si>
+  <si>
+    <t>Paramétrer (www vs sans www)</t>
+  </si>
+  <si>
+    <t>pour améliorer le référencement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et placer le site sous le nom de domaine </t>
+  </si>
+  <si>
+    <t>Placer le site sous le nom de domaine de l'agence</t>
+  </si>
+  <si>
+    <t>"lachouetteagence.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> du site par Google en France et donne information </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erronée de l'agence Chouette</t>
+  </si>
+  <si>
+    <t>(Paris au lieu de Lyon)</t>
+  </si>
+  <si>
+    <t>Recherche de mots clés</t>
+  </si>
+  <si>
+    <t>Mot-clé de marque:</t>
+  </si>
+  <si>
+    <t>La Chouette car nom  de l'Agence</t>
+  </si>
+  <si>
+    <t>Mot-clés généraliste:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mot-clé d'information: </t>
+  </si>
+  <si>
+    <t>Créer un site internet</t>
+  </si>
+  <si>
+    <t>expertise?</t>
+  </si>
+  <si>
+    <t>articles sur les derniers techniques design...</t>
+  </si>
+  <si>
+    <t>Design, Web, site internet</t>
+  </si>
+  <si>
+    <t>Développer votre activité sur internet</t>
+  </si>
+  <si>
+    <t>Mot-clés d'intention:</t>
+  </si>
+  <si>
+    <t>Mot-clé de localisation:</t>
+  </si>
+  <si>
+    <t>Agence Web design à Lyon</t>
+  </si>
+  <si>
+    <t>Création de site internet à Lyon</t>
+  </si>
+  <si>
+    <t>Mot clé</t>
+  </si>
+  <si>
+    <t>Volume de recherche</t>
+  </si>
+  <si>
+    <t>Concurrence</t>
+  </si>
+  <si>
+    <t>Chouette</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Site internet</t>
+  </si>
+  <si>
+    <t>Création site internet</t>
+  </si>
+  <si>
+    <t>Agence web</t>
+  </si>
+  <si>
+    <t>*source:</t>
+  </si>
+  <si>
+    <t>Agence Web à Lyon</t>
+  </si>
+  <si>
+    <t>Quel agence web choisir?</t>
+  </si>
+  <si>
+    <t>Answer the public</t>
+  </si>
+  <si>
+    <t>Kwfinder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,6 +577,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -557,18 +599,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -583,78 +625,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,63 +640,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{65BFB96F-3114-4F74-91A7-413857A61FDC}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -931,17 +867,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1035"/>
+  <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.3046875" customWidth="1"/>
     <col min="2" max="2" width="28.07421875" customWidth="1"/>
-    <col min="3" max="3" width="35.23046875" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="42.69140625" customWidth="1"/>
     <col min="5" max="5" width="27.15234375" customWidth="1"/>
     <col min="6" max="6" width="21.3046875" customWidth="1"/>
@@ -997,18 +933,17 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
-      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1016,542 +951,664 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C57" t="s">
         <v>34</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E57" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
         <v>31</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E58" s="6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="6" t="s">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="5" t="s">
+      <c r="C78" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="E81" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
         <v>95</v>
       </c>
-      <c r="E74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="6" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E87" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="6" t="s">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E88" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E81" s="6" t="s">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E89" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E82" s="6" t="s">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E90" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E83" s="6" t="s">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E91" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E84" s="6" t="s">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E93" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E94" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E86" s="6" t="s">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E95" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E96" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E98" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E87" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E88" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E89" s="6" t="s">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E99" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E91" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E92" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2475,6 +2532,13 @@
     <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2482,738 +2546,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC6394D-614D-4422-81DB-4BDE6BC51823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAC2E99-5B83-41FE-8D8D-429238D65A69}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458E84E8-2D12-4DCE-A8BE-0709B327A428}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.23046875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.07421875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.53515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.3046875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="12.23046875" style="8"/>
+    <col min="1" max="1" width="29.07421875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.765625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="12.23046875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="11"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="15">
+        <v>200</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="E2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="15">
+        <v>890</v>
+      </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>111</v>
+      <c r="E3" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="11">
+        <v>170</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>115</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:D28">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISEVEN(ROW())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D92473-0098-439C-B93F-F1F7C84FE6F5}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.23046875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.07421875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.23046875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.61328125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="12.23046875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:D44">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISEVEN(ROW())</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Audit-SEO-LaChouette-HZ.xlsx
+++ b/Audit-SEO-LaChouette-HZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenClassroom\P4_Zoubeiri_Housna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A33BC-B0C4-44E6-8CF2-A755C17C2D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4610A7-F656-489D-9B8F-23B1FCA965BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyse" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="160">
   <si>
     <t>Catégorie</t>
   </si>
@@ -155,15 +155,6 @@
     <t>avec bonne localisation</t>
   </si>
   <si>
-    <t>Header, Main et Footer</t>
-  </si>
-  <si>
-    <t>Absence de balises sémantiques</t>
-  </si>
-  <si>
-    <t>et barre navigation</t>
-  </si>
-  <si>
     <t>Image background trop lourde en bmp</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>en intégrant mot-clé relative à l'activité"web design"</t>
   </si>
   <si>
-    <t>ne contient pas de mots-clé</t>
-  </si>
-  <si>
     <t xml:space="preserve">  relative à l'activité</t>
   </si>
   <si>
@@ -227,12 +215,6 @@
     <t xml:space="preserve">Ajouter "Web " et "design" au contenu de H1 </t>
   </si>
   <si>
-    <t>trop long</t>
-  </si>
-  <si>
-    <t>Réduire h2 pour être attractif et avec mot-clé</t>
-  </si>
-  <si>
     <t xml:space="preserve">Titre H2 </t>
   </si>
   <si>
@@ -413,9 +395,6 @@
     <t xml:space="preserve">et placer le site sous le nom de domaine </t>
   </si>
   <si>
-    <t>Placer le site sous le nom de domaine de l'agence</t>
-  </si>
-  <si>
     <t>"lachouetteagence.com"</t>
   </si>
   <si>
@@ -510,6 +489,30 @@
   </si>
   <si>
     <t>Kwfinder</t>
+  </si>
+  <si>
+    <t>Enlever le point et ajouter un mots-clé</t>
+  </si>
+  <si>
+    <t>Paramétrer URL</t>
+  </si>
+  <si>
+    <t>Police et couleur pas assez contrasté</t>
+  </si>
+  <si>
+    <t>Renseigner un texte alternatif à l'image</t>
+  </si>
+  <si>
+    <t>Absence de balises de structures</t>
+  </si>
+  <si>
+    <t>Header, Main , Section et Footer</t>
+  </si>
+  <si>
+    <t>Police différente du reste du texte</t>
+  </si>
+  <si>
+    <t>Police et couleur pas assez contrastée</t>
   </si>
 </sst>
 </file>
@@ -867,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1042"/>
+  <dimension ref="A1:Z1044"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -933,7 +936,7 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -943,7 +946,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -952,10 +955,10 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -963,31 +966,31 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -995,31 +998,31 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1037,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1057,10 +1060,10 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -1071,38 +1074,38 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B25" s="5"/>
       <c r="E25" s="7"/>
@@ -1110,30 +1113,30 @@
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -1141,7 +1144,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1181,12 +1184,12 @@
         <v>10</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E34" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1222,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1243,12 +1246,12 @@
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E44" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E45" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1261,347 +1264,368 @@
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B49" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="A52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
       </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
         <v>30</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E61" s="6"/>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E64" s="6"/>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="6" t="s">
-        <v>70</v>
+      <c r="C68" t="s">
+        <v>44</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E69" s="6"/>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+      <c r="B77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="6" t="s">
-        <v>73</v>
+      <c r="B79" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
+      <c r="C81" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
         <v>89</v>
       </c>
-      <c r="C81" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E87" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E88" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E89" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E90" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E91" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E92" s="6"/>
+      <c r="E92" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E93" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E94" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E95" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E96" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E98" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="6"/>
+      <c r="E100" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E105" s="6"/>
+    </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2539,6 +2563,8 @@
     <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2560,60 +2586,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2655,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2642,43 +2668,43 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B2" s="15">
         <v>200</v>
       </c>
       <c r="C2" s="11"/>
       <c r="E2" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B3" s="15">
         <v>890</v>
       </c>
       <c r="C3" s="11"/>
       <c r="E3" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2688,19 +2714,19 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2712,7 +2738,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B9" s="11">
         <v>170</v>
@@ -2721,7 +2747,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2733,21 +2759,21 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
